--- a/DaySale_2025-05-26_11-25.xlsx
+++ b/DaySale_2025-05-26_11-25.xlsx
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>130.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>28.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -1007,14 +1022,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1023,31 +1038,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1056,66 +1071,132 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>31</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
         <v>48</v>
       </c>
-      <c t="s" r="Q15" s="12">
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>31</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>48</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>335.04000000000002</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>49</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>50</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>51</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>402.04000000000002</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1169,10 +1250,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
